--- a/report/Debug/report_sheet.xlsx
+++ b/report/Debug/report_sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7965" yWindow="-120" windowWidth="10815" windowHeight="7995" tabRatio="881" activeTab="12"/>
+    <workbookView xWindow="7965" yWindow="-120" windowWidth="10815" windowHeight="7995" tabRatio="881" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="CONTROLS" sheetId="4" r:id="rId1"/>
@@ -12869,8 +12869,8 @@
   </sheetPr>
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView view="pageBreakPreview" topLeftCell="B4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14714,7 +14714,7 @@
       </c>
       <c r="I34" s="25">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D34,MATCH(I$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J34" s="31"/>
       <c r="K34" s="36">
@@ -14727,7 +14727,7 @@
       </c>
       <c r="M34" s="36">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D34,MATCH(M$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N34" s="36">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D34,MATCH(N$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
@@ -14735,15 +14735,15 @@
       </c>
       <c r="O34" s="36">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D34,MATCH(O$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P34" s="36">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D34,MATCH(P$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="Q34" s="36">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D34,MATCH(Q$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R34" s="36">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D34,MATCH(R$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
@@ -14782,7 +14782,7 @@
       </c>
       <c r="I35" s="37">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J35" s="32"/>
       <c r="K35" s="37">
@@ -14795,7 +14795,7 @@
       </c>
       <c r="M35" s="37">
         <f t="shared" si="5"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N35" s="37">
         <f t="shared" si="5"/>
@@ -14803,15 +14803,15 @@
       </c>
       <c r="O35" s="37">
         <f t="shared" si="5"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P35" s="37">
         <f t="shared" si="5"/>
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="Q35" s="37">
         <f t="shared" si="5"/>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R35" s="37">
         <f t="shared" si="5"/>
@@ -17434,7 +17434,7 @@
       </c>
       <c r="M38" s="36">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D38,MATCH(M$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N38" s="36">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D38,MATCH(N$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
@@ -17502,7 +17502,7 @@
       </c>
       <c r="M39" s="37">
         <f t="shared" si="7"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N39" s="37">
         <f t="shared" si="7"/>
@@ -18028,8 +18028,8 @@
   </sheetPr>
   <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
+    <sheetView view="pageBreakPreview" topLeftCell="B7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32949,7 +32949,7 @@
         <v>14</v>
       </c>
       <c r="N227" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O227" s="17">
         <v>5</v>
@@ -36302,22 +36302,22 @@
         <v>4</v>
       </c>
       <c r="J2" s="17">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K2" s="17">
         <v>9</v>
       </c>
       <c r="L2" s="17">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M2" s="17">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="N2" s="17">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="O2" s="17">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P2" s="17">
         <v>6</v>
@@ -36355,7 +36355,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="17">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K3" s="17">
         <v>23</v>
@@ -36452,7 +36452,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="17">
         <v>0</v>
@@ -36473,7 +36473,7 @@
         <v>73</v>
       </c>
       <c r="N5" s="17">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O5" s="17">
         <v>28</v>
@@ -36611,7 +36611,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H8" s="17">
         <v>0</v>
@@ -36717,7 +36717,7 @@
         <v>31</v>
       </c>
       <c r="G10" s="17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H10" s="17">
         <v>3</v>
@@ -36726,19 +36726,19 @@
         <v>3</v>
       </c>
       <c r="J10" s="17">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K10" s="17">
         <v>17</v>
       </c>
       <c r="L10" s="17">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M10" s="17">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="N10" s="17">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O10" s="17">
         <v>35</v>
@@ -36823,7 +36823,7 @@
         <v>17</v>
       </c>
       <c r="G12" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H12" s="17">
         <v>2</v>
@@ -41007,7 +41007,7 @@
       </c>
       <c r="I62" s="25">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D62,MATCH(I$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J62" s="36">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D62,MATCH(J$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
@@ -41083,7 +41083,7 @@
       </c>
       <c r="I63" s="25">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D63,MATCH(I$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J63" s="36">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D63,MATCH(J$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
@@ -41247,7 +41247,7 @@
       </c>
       <c r="L65" s="36">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D65,MATCH(L$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M65" s="36">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D65,MATCH(M$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
@@ -41255,19 +41255,19 @@
       </c>
       <c r="N65" s="36">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D65,MATCH(N$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O65" s="36">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D65,MATCH(O$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="P65" s="36">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D65,MATCH(P$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Q65" s="36">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D65,MATCH(Q$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R65" s="36">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D65,MATCH(R$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
@@ -41311,7 +41311,7 @@
       </c>
       <c r="I66" s="25">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D66,MATCH(I$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66" s="36">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D66,MATCH(J$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
@@ -41339,7 +41339,7 @@
       </c>
       <c r="P66" s="36">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D66,MATCH(P$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q66" s="36">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D66,MATCH(Q$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
@@ -41463,7 +41463,7 @@
       </c>
       <c r="I68" s="25">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D68,MATCH(I$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J68" s="36">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D68,MATCH(J$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
@@ -41475,7 +41475,7 @@
       </c>
       <c r="L68" s="36">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D68,MATCH(L$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M68" s="36">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D68,MATCH(M$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
@@ -41483,15 +41483,15 @@
       </c>
       <c r="N68" s="36">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D68,MATCH(N$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O68" s="36">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D68,MATCH(O$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="P68" s="36">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D68,MATCH(P$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q68" s="36">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D68,MATCH(Q$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
@@ -41551,7 +41551,7 @@
       </c>
       <c r="L69" s="36">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D69,MATCH(L$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M69" s="36">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D69,MATCH(M$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
@@ -41682,7 +41682,7 @@
       </c>
       <c r="I71" s="40">
         <f t="shared" ref="I71" si="51">SUM(I60:I70)</f>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J71" s="40">
         <f t="shared" ref="J71" si="52">SUM(J60:J70)</f>
@@ -41694,7 +41694,7 @@
       </c>
       <c r="L71" s="40">
         <f t="shared" ref="L71" si="54">SUM(L60:L70)</f>
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="M71" s="40">
         <f t="shared" ref="M71" si="55">SUM(M60:M70)</f>
@@ -41702,19 +41702,19 @@
       </c>
       <c r="N71" s="40">
         <f t="shared" ref="N71" si="56">SUM(N60:N70)</f>
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="O71" s="40">
         <f t="shared" ref="O71" si="57">SUM(O60:O70)</f>
-        <v>1112</v>
+        <v>1130</v>
       </c>
       <c r="P71" s="40">
         <f t="shared" ref="P71" si="58">SUM(P60:P70)</f>
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="Q71" s="40">
         <f t="shared" ref="Q71" si="59">SUM(Q60:Q70)</f>
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="R71" s="40">
         <f t="shared" ref="R71" si="60">SUM(R60:R70)</f>
@@ -41749,7 +41749,7 @@
       </c>
       <c r="I72" s="26">
         <f t="shared" si="62"/>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J72" s="26">
         <f t="shared" ref="J72" si="63">J71+J59+J47+J35+J23</f>
@@ -41761,7 +41761,7 @@
       </c>
       <c r="L72" s="26">
         <f t="shared" ref="L72" si="65">L71+L59+L47+L35+L23</f>
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="M72" s="26">
         <f t="shared" ref="M72" si="66">M71+M59+M47+M35+M23</f>
@@ -41769,19 +41769,19 @@
       </c>
       <c r="N72" s="26">
         <f t="shared" ref="N72" si="67">N71+N59+N47+N35+N23</f>
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="O72" s="26">
         <f t="shared" ref="O72" si="68">O71+O59+O47+O35+O23</f>
-        <v>1112</v>
+        <v>1130</v>
       </c>
       <c r="P72" s="26">
         <f t="shared" ref="P72" si="69">P71+P59+P47+P35+P23</f>
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="Q72" s="26">
         <f t="shared" ref="Q72" si="70">Q71+Q59+Q47+Q35+Q23</f>
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="R72" s="26">
         <f t="shared" ref="R72" si="71">R71+R59+R47+R35+R23</f>
@@ -46334,7 +46334,7 @@
       </c>
       <c r="I30" s="25">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D30,MATCH(I$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J30" s="31"/>
       <c r="K30" s="36">
@@ -46402,7 +46402,7 @@
       </c>
       <c r="I31" s="37">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J31" s="32"/>
       <c r="K31" s="37">
@@ -46780,7 +46780,7 @@
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="B2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48214,7 +48214,7 @@
       </c>
       <c r="I28" s="25">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D28,MATCH(I$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J28" s="31"/>
       <c r="K28" s="36">
@@ -48282,7 +48282,7 @@
       </c>
       <c r="I29" s="37">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J29" s="32"/>
       <c r="K29" s="37">
@@ -50904,8 +50904,8 @@
   </sheetPr>
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="W30" sqref="W30"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31:T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52590,7 +52590,7 @@
       </c>
       <c r="M31" s="36">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D31,MATCH(M$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N31" s="36">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D31,MATCH(N$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
@@ -52598,19 +52598,19 @@
       </c>
       <c r="O31" s="36">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D31,MATCH(O$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P31" s="36">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D31,MATCH(P$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="Q31" s="36">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D31,MATCH(Q$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="R31" s="36">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D31,MATCH(R$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S31" s="36">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D31,MATCH(S$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
@@ -52658,7 +52658,7 @@
       </c>
       <c r="M32" s="37">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N32" s="37">
         <f t="shared" si="3"/>
@@ -52666,19 +52666,19 @@
       </c>
       <c r="O32" s="37">
         <f t="shared" si="3"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P32" s="37">
         <f t="shared" si="3"/>
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="Q32" s="37">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="R32" s="37">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S32" s="37">
         <f t="shared" si="3"/>
@@ -53154,7 +53154,7 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53574,7 +53574,7 @@
       </c>
       <c r="Q12" s="25">
         <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D12,MATCH(Q$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R12" s="25">
         <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D12,MATCH(R$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
@@ -53801,7 +53801,7 @@
       </c>
       <c r="Q15" s="26">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R15" s="26">
         <f t="shared" si="1"/>
@@ -54589,7 +54589,7 @@
       </c>
       <c r="I28" s="25">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D28,MATCH(I$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" s="31"/>
       <c r="K28" s="36">
@@ -54618,7 +54618,7 @@
       </c>
       <c r="Q28" s="36">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D28,MATCH(Q$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R28" s="36">
         <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D28,MATCH(R$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
@@ -54657,7 +54657,7 @@
       </c>
       <c r="I29" s="37">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" s="32"/>
       <c r="K29" s="37">
@@ -54686,7 +54686,7 @@
       </c>
       <c r="Q29" s="37">
         <f t="shared" si="12"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R29" s="37">
         <f t="shared" si="12"/>
@@ -54749,7 +54749,7 @@
       </c>
       <c r="Q31" s="17">
         <f t="shared" si="13"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R31" s="17">
         <f t="shared" si="13"/>

--- a/report/Debug/report_sheet.xlsx
+++ b/report/Debug/report_sheet.xlsx
@@ -12613,17 +12613,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="P1:P8"/>
+    <mergeCell ref="Q1:Q8"/>
+    <mergeCell ref="R1:R8"/>
+    <mergeCell ref="S1:S8"/>
+    <mergeCell ref="T1:T8"/>
     <mergeCell ref="O1:O8"/>
     <mergeCell ref="E1:I8"/>
     <mergeCell ref="K1:K8"/>
     <mergeCell ref="L1:L8"/>
     <mergeCell ref="M1:M8"/>
     <mergeCell ref="N1:N8"/>
-    <mergeCell ref="P1:P8"/>
-    <mergeCell ref="Q1:Q8"/>
-    <mergeCell ref="R1:R8"/>
-    <mergeCell ref="S1:S8"/>
-    <mergeCell ref="T1:T8"/>
   </mergeCells>
   <conditionalFormatting sqref="K12:L13 K23:L26">
     <cfRule type="cellIs" dxfId="335" priority="83" operator="lessThan">
@@ -14891,17 +14891,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="P1:P8"/>
+    <mergeCell ref="Q1:Q8"/>
+    <mergeCell ref="R1:R8"/>
+    <mergeCell ref="S1:S8"/>
+    <mergeCell ref="T1:T8"/>
     <mergeCell ref="O1:O8"/>
     <mergeCell ref="E1:I8"/>
     <mergeCell ref="K1:K8"/>
     <mergeCell ref="L1:L8"/>
     <mergeCell ref="M1:M8"/>
     <mergeCell ref="N1:N8"/>
-    <mergeCell ref="P1:P8"/>
-    <mergeCell ref="Q1:Q8"/>
-    <mergeCell ref="R1:R8"/>
-    <mergeCell ref="S1:S8"/>
-    <mergeCell ref="T1:T8"/>
   </mergeCells>
   <conditionalFormatting sqref="K12:L12">
     <cfRule type="cellIs" dxfId="279" priority="97" operator="lessThan">
@@ -17598,17 +17598,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="P1:P8"/>
+    <mergeCell ref="Q1:Q8"/>
+    <mergeCell ref="R1:R8"/>
+    <mergeCell ref="S1:S8"/>
+    <mergeCell ref="T1:T8"/>
     <mergeCell ref="O1:O8"/>
     <mergeCell ref="E1:I8"/>
     <mergeCell ref="K1:K8"/>
     <mergeCell ref="L1:L8"/>
     <mergeCell ref="M1:M8"/>
     <mergeCell ref="N1:N8"/>
-    <mergeCell ref="P1:P8"/>
-    <mergeCell ref="Q1:Q8"/>
-    <mergeCell ref="R1:R8"/>
-    <mergeCell ref="S1:S8"/>
-    <mergeCell ref="T1:T8"/>
   </mergeCells>
   <conditionalFormatting sqref="K12:L13">
     <cfRule type="cellIs" dxfId="181" priority="97" operator="lessThan">
@@ -20542,17 +20542,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="P1:P8"/>
+    <mergeCell ref="Q1:Q8"/>
+    <mergeCell ref="R1:R8"/>
+    <mergeCell ref="S1:S8"/>
+    <mergeCell ref="T1:T8"/>
     <mergeCell ref="O1:O8"/>
     <mergeCell ref="E1:I8"/>
     <mergeCell ref="K1:K8"/>
     <mergeCell ref="L1:L8"/>
     <mergeCell ref="M1:M8"/>
     <mergeCell ref="N1:N8"/>
-    <mergeCell ref="P1:P8"/>
-    <mergeCell ref="Q1:Q8"/>
-    <mergeCell ref="R1:R8"/>
-    <mergeCell ref="S1:S8"/>
-    <mergeCell ref="T1:T8"/>
   </mergeCells>
   <conditionalFormatting sqref="K12:L13 K25:L28 K31:L32">
     <cfRule type="cellIs" dxfId="83" priority="125" operator="lessThan">
@@ -41794,11 +41794,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="O1:O8"/>
-    <mergeCell ref="P1:P8"/>
-    <mergeCell ref="Q1:Q8"/>
-    <mergeCell ref="R1:R8"/>
-    <mergeCell ref="S1:S8"/>
     <mergeCell ref="M1:M8"/>
     <mergeCell ref="N1:N8"/>
     <mergeCell ref="B3:B5"/>
@@ -41806,6 +41801,11 @@
     <mergeCell ref="J1:J8"/>
     <mergeCell ref="K1:K8"/>
     <mergeCell ref="L1:L8"/>
+    <mergeCell ref="O1:O8"/>
+    <mergeCell ref="P1:P8"/>
+    <mergeCell ref="Q1:Q8"/>
+    <mergeCell ref="R1:R8"/>
+    <mergeCell ref="S1:S8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -42890,17 +42890,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="P1:P8"/>
+    <mergeCell ref="Q1:Q8"/>
+    <mergeCell ref="R1:R8"/>
+    <mergeCell ref="S1:S8"/>
+    <mergeCell ref="T1:T8"/>
     <mergeCell ref="O1:O8"/>
     <mergeCell ref="E1:I8"/>
     <mergeCell ref="K1:K8"/>
     <mergeCell ref="L1:L8"/>
     <mergeCell ref="M1:M8"/>
     <mergeCell ref="N1:N8"/>
-    <mergeCell ref="P1:P8"/>
-    <mergeCell ref="Q1:Q8"/>
-    <mergeCell ref="R1:R8"/>
-    <mergeCell ref="S1:S8"/>
-    <mergeCell ref="T1:T8"/>
   </mergeCells>
   <conditionalFormatting sqref="K12:L13">
     <cfRule type="cellIs" dxfId="737" priority="39" operator="lessThan">
@@ -44559,17 +44559,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="P1:P8"/>
+    <mergeCell ref="Q1:Q8"/>
+    <mergeCell ref="R1:R8"/>
+    <mergeCell ref="S1:S8"/>
+    <mergeCell ref="T1:T8"/>
     <mergeCell ref="O1:O8"/>
     <mergeCell ref="E1:I8"/>
     <mergeCell ref="K1:K8"/>
     <mergeCell ref="L1:L8"/>
     <mergeCell ref="M1:M8"/>
     <mergeCell ref="N1:N8"/>
-    <mergeCell ref="P1:P8"/>
-    <mergeCell ref="Q1:Q8"/>
-    <mergeCell ref="R1:R8"/>
-    <mergeCell ref="S1:S8"/>
-    <mergeCell ref="T1:T8"/>
   </mergeCells>
   <conditionalFormatting sqref="K12:L14">
     <cfRule type="cellIs" dxfId="710" priority="53" operator="lessThan">
@@ -46528,17 +46528,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="P1:P8"/>
+    <mergeCell ref="Q1:Q8"/>
+    <mergeCell ref="R1:R8"/>
+    <mergeCell ref="S1:S8"/>
+    <mergeCell ref="T1:T8"/>
     <mergeCell ref="O1:O8"/>
     <mergeCell ref="E1:I8"/>
     <mergeCell ref="K1:K8"/>
     <mergeCell ref="L1:L8"/>
     <mergeCell ref="M1:M8"/>
     <mergeCell ref="N1:N8"/>
-    <mergeCell ref="P1:P8"/>
-    <mergeCell ref="Q1:Q8"/>
-    <mergeCell ref="R1:R8"/>
-    <mergeCell ref="S1:S8"/>
-    <mergeCell ref="T1:T8"/>
   </mergeCells>
   <conditionalFormatting sqref="K16:L18">
     <cfRule type="cellIs" dxfId="656" priority="54" operator="lessThan">
@@ -48391,17 +48391,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="P1:P8"/>
+    <mergeCell ref="Q1:Q8"/>
+    <mergeCell ref="R1:R8"/>
+    <mergeCell ref="S1:S8"/>
+    <mergeCell ref="T1:T8"/>
     <mergeCell ref="O1:O8"/>
     <mergeCell ref="E1:I8"/>
     <mergeCell ref="K1:K8"/>
     <mergeCell ref="L1:L8"/>
     <mergeCell ref="M1:M8"/>
     <mergeCell ref="N1:N8"/>
-    <mergeCell ref="P1:P8"/>
-    <mergeCell ref="Q1:Q8"/>
-    <mergeCell ref="R1:R8"/>
-    <mergeCell ref="S1:S8"/>
-    <mergeCell ref="T1:T8"/>
   </mergeCells>
   <conditionalFormatting sqref="K12:L13">
     <cfRule type="cellIs" dxfId="601" priority="55" operator="lessThan">
@@ -50590,17 +50590,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="P1:P8"/>
+    <mergeCell ref="Q1:Q8"/>
+    <mergeCell ref="R1:R8"/>
+    <mergeCell ref="S1:S8"/>
+    <mergeCell ref="T1:T8"/>
     <mergeCell ref="O1:O8"/>
     <mergeCell ref="E1:I8"/>
     <mergeCell ref="K1:K8"/>
     <mergeCell ref="L1:L8"/>
     <mergeCell ref="M1:M8"/>
     <mergeCell ref="N1:N8"/>
-    <mergeCell ref="P1:P8"/>
-    <mergeCell ref="Q1:Q8"/>
-    <mergeCell ref="R1:R8"/>
-    <mergeCell ref="S1:S8"/>
-    <mergeCell ref="T1:T8"/>
   </mergeCells>
   <conditionalFormatting sqref="K12:L13">
     <cfRule type="cellIs" dxfId="545" priority="69" operator="lessThan">
@@ -50905,7 +50905,7 @@
   <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:T31"/>
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52781,17 +52781,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E1:I8"/>
-    <mergeCell ref="K1:K8"/>
-    <mergeCell ref="L1:L8"/>
-    <mergeCell ref="M1:M8"/>
-    <mergeCell ref="N1:N8"/>
     <mergeCell ref="T1:T8"/>
     <mergeCell ref="O1:O8"/>
     <mergeCell ref="P1:P8"/>
     <mergeCell ref="Q1:Q8"/>
     <mergeCell ref="R1:R8"/>
     <mergeCell ref="S1:S8"/>
+    <mergeCell ref="E1:I8"/>
+    <mergeCell ref="K1:K8"/>
+    <mergeCell ref="L1:L8"/>
+    <mergeCell ref="M1:M8"/>
+    <mergeCell ref="N1:N8"/>
   </mergeCells>
   <conditionalFormatting sqref="K12:L13">
     <cfRule type="cellIs" dxfId="475" priority="97" operator="lessThan">
@@ -54778,17 +54778,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="P1:P8"/>
+    <mergeCell ref="Q1:Q8"/>
+    <mergeCell ref="R1:R8"/>
+    <mergeCell ref="S1:S8"/>
+    <mergeCell ref="T1:T8"/>
     <mergeCell ref="O1:O8"/>
     <mergeCell ref="E1:I8"/>
     <mergeCell ref="K1:K8"/>
     <mergeCell ref="L1:L8"/>
     <mergeCell ref="M1:M8"/>
     <mergeCell ref="N1:N8"/>
-    <mergeCell ref="P1:P8"/>
-    <mergeCell ref="Q1:Q8"/>
-    <mergeCell ref="R1:R8"/>
-    <mergeCell ref="S1:S8"/>
-    <mergeCell ref="T1:T8"/>
   </mergeCells>
   <conditionalFormatting sqref="K12:L12">
     <cfRule type="cellIs" dxfId="391" priority="55" operator="lessThan">

--- a/report/Debug/report_sheet.xlsx
+++ b/report/Debug/report_sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7965" yWindow="-120" windowWidth="10815" windowHeight="7995" tabRatio="881" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="7965" yWindow="-120" windowWidth="10815" windowHeight="7995" tabRatio="881" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CONTROLS" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">HUALIAN!$A$1:$T$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">MISSION_TOTALS!$A$1:$S$72</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">NORTH!$A$1:$T$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">OFFICE!$A$1:$T$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">OFFICE!$A$1:$W$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">SOUTH!$A$1:$T$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">TAIDONG!$A$1:$T$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">TAOYUAN!$A$1:$T$42</definedName>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="820">
   <si>
     <t>YEAR</t>
   </si>
@@ -2543,13 +2543,48 @@
   </si>
   <si>
     <t>Xinban S</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>Actual to Date</t>
+  </si>
+  <si>
+    <t>1/wk</t>
+  </si>
+  <si>
+    <t>NEXTWEEKBAP</t>
+  </si>
+  <si>
+    <t>NIMEMREF</t>
+  </si>
+  <si>
+    <t>NIMISSFIND</t>
+  </si>
+  <si>
+    <t>BAPTISMS</t>
+  </si>
+  <si>
+    <t>New Investigators from Finding
+新慕道友</t>
+  </si>
+  <si>
+    <t>New Investigators from Member Referrals
+成員回條新慕道友</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2592,6 +2627,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2825,7 +2868,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
@@ -2924,6 +2967,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2954,6 +3042,27 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2968,7 +3077,7 @@
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="738">
+  <dxfs count="740">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -9812,6 +9921,26 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10614,42 +10743,42 @@
       </c>
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="69"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="97"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="58" t="s">
+      <c r="O1" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="58" t="s">
+      <c r="P1" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="58" t="s">
+      <c r="R1" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="S1" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="T1" s="58" t="s">
+      <c r="T1" s="79" t="s">
         <v>60</v>
       </c>
     </row>
@@ -10661,22 +10790,22 @@
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="65"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="86"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
     </row>
     <row r="3" spans="1:20" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
@@ -10685,68 +10814,68 @@
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="65"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45"/>
       <c r="B4" s="19"/>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="65"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="86"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45"/>
       <c r="B5" s="42"/>
       <c r="C5" s="46"/>
       <c r="D5" s="46"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="65"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="86"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="45"/>
@@ -10755,68 +10884,68 @@
       </c>
       <c r="C6" s="46"/>
       <c r="D6" s="46"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="65"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="86"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="80"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="45"/>
       <c r="B7" s="21"/>
       <c r="C7" s="46"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="65"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="86"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="80"/>
     </row>
     <row r="8" spans="1:20" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
       <c r="B8" s="22"/>
       <c r="C8" s="46"/>
       <c r="D8" s="46"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="67"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
       <c r="J8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="60"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="81"/>
+      <c r="T8" s="81"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
@@ -12892,42 +13021,42 @@
       </c>
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="69"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="97"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="58" t="s">
+      <c r="O1" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="58" t="s">
+      <c r="P1" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="58" t="s">
+      <c r="R1" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="S1" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="T1" s="58" t="s">
+      <c r="T1" s="79" t="s">
         <v>60</v>
       </c>
     </row>
@@ -12939,22 +13068,22 @@
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="65"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="86"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
     </row>
     <row r="3" spans="1:20" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
@@ -12963,68 +13092,68 @@
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="65"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45"/>
       <c r="B4" s="19"/>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="65"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="86"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45"/>
       <c r="B5" s="42"/>
       <c r="C5" s="46"/>
       <c r="D5" s="46"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="65"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="86"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="45"/>
@@ -13033,68 +13162,68 @@
       </c>
       <c r="C6" s="46"/>
       <c r="D6" s="46"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="65"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="86"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="80"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="45"/>
       <c r="B7" s="21"/>
       <c r="C7" s="46"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="65"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="86"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="80"/>
     </row>
     <row r="8" spans="1:20" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
       <c r="B8" s="22"/>
       <c r="C8" s="46"/>
       <c r="D8" s="46"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="67"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
       <c r="J8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="60"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="81"/>
+      <c r="T8" s="81"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
@@ -15344,42 +15473,42 @@
       </c>
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="69"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="97"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="58" t="s">
+      <c r="O1" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="58" t="s">
+      <c r="P1" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="58" t="s">
+      <c r="R1" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="S1" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="T1" s="58" t="s">
+      <c r="T1" s="79" t="s">
         <v>60</v>
       </c>
     </row>
@@ -15391,22 +15520,22 @@
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="65"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="86"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
     </row>
     <row r="3" spans="1:20" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -15415,68 +15544,68 @@
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="65"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="19"/>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="65"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="86"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="42"/>
       <c r="C5" s="46"/>
       <c r="D5" s="46"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="65"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="86"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
@@ -15485,68 +15614,68 @@
       </c>
       <c r="C6" s="46"/>
       <c r="D6" s="46"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="65"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="86"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="80"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="21"/>
       <c r="C7" s="46"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="65"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="86"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="80"/>
     </row>
     <row r="8" spans="1:20" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="22"/>
       <c r="C8" s="46"/>
       <c r="D8" s="46"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="67"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
       <c r="J8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="60"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="81"/>
+      <c r="T8" s="81"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -18051,42 +18180,42 @@
       </c>
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="69"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="97"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="58" t="s">
+      <c r="O1" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="58" t="s">
+      <c r="P1" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="58" t="s">
+      <c r="R1" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="S1" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="T1" s="58" t="s">
+      <c r="T1" s="79" t="s">
         <v>60</v>
       </c>
     </row>
@@ -18098,22 +18227,22 @@
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="65"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="86"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
     </row>
     <row r="3" spans="1:20" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
@@ -18122,68 +18251,68 @@
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="65"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45"/>
       <c r="B4" s="19"/>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="65"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="86"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45"/>
       <c r="B5" s="42"/>
       <c r="C5" s="46"/>
       <c r="D5" s="46"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="65"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="86"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="45"/>
@@ -18192,68 +18321,68 @@
       </c>
       <c r="C6" s="46"/>
       <c r="D6" s="46"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="65"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="86"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="80"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="45"/>
       <c r="B7" s="21"/>
       <c r="C7" s="46"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="65"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="86"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="80"/>
     </row>
     <row r="8" spans="1:20" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
       <c r="B8" s="22"/>
       <c r="C8" s="46"/>
       <c r="D8" s="46"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="67"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
       <c r="J8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="60"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="81"/>
+      <c r="T8" s="81"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
@@ -36892,41 +37021,41 @@
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="58" t="s">
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="58" t="s">
+      <c r="O1" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="P1" s="58" t="s">
+      <c r="P1" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="R1" s="58" t="s">
+      <c r="R1" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="S1" s="79" t="s">
         <v>60</v>
       </c>
     </row>
@@ -36938,86 +37067,86 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
     </row>
     <row r="3" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="82" t="s">
         <v>270</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
     </row>
     <row r="4" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
-      <c r="B4" s="62"/>
+      <c r="B4" s="83"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
-      <c r="B5" s="63"/>
+      <c r="B5" s="84"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
@@ -37026,63 +37155,63 @@
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7" s="21"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="80"/>
     </row>
     <row r="8" spans="1:19" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="22"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="60"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="81"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
@@ -41814,1127 +41943,1184 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T27"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="11" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" hidden="1" customWidth="1"/>
     <col min="5" max="8" width="3.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" customWidth="1"/>
-    <col min="11" max="20" width="7.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11" style="17" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="17" hidden="1" customWidth="1"/>
+    <col min="13" max="19" width="7.7109375" customWidth="1"/>
+    <col min="20" max="20" width="7.7109375" style="17" customWidth="1"/>
+    <col min="21" max="23" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43"/>
-      <c r="B1" s="19" t="s">
-        <v>39</v>
-      </c>
+    <row r="1" spans="1:23" s="17" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46"/>
+      <c r="B1" s="74"/>
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
-      <c r="E1" s="68" t="s">
-        <v>22</v>
-      </c>
+      <c r="E1" s="75"/>
       <c r="F1" s="68"/>
       <c r="G1" s="68"/>
       <c r="H1" s="68"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="58" t="s">
+      <c r="I1" s="68"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="N1" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="O1" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="P1" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="58" t="s">
+      <c r="Q1" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="58" t="s">
+      <c r="R1" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="R1" s="58" t="s">
+      <c r="S1" s="95" t="s">
+        <v>818</v>
+      </c>
+      <c r="T1" s="95" t="s">
+        <v>819</v>
+      </c>
+      <c r="U1" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="V1" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="T1" s="58" t="s">
+      <c r="W1" s="95" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="45"/>
-      <c r="B2" s="20">
+      <c r="B2" s="77">
         <f>DATE</f>
         <v>42400</v>
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-    </row>
-    <row r="3" spans="1:20" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="E2" s="57"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="95"/>
+      <c r="V2" s="95"/>
+      <c r="W2" s="95"/>
+    </row>
+    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="45"/>
-      <c r="B3" s="14" t="s">
-        <v>147</v>
+      <c r="B3" s="70" t="s">
+        <v>43</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-    </row>
-    <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="89" t="s">
+        <v>817</v>
+      </c>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="58" t="s">
+        <v>809</v>
+      </c>
+      <c r="J3" s="59" t="s">
+        <v>810</v>
+      </c>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95"/>
+      <c r="T3" s="95"/>
+      <c r="U3" s="95"/>
+      <c r="V3" s="95"/>
+      <c r="W3" s="95"/>
+    </row>
+    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="45"/>
-      <c r="B4" s="19"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-    </row>
-    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="91" t="s">
+        <v>811</v>
+      </c>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="78">
+        <v>100</v>
+      </c>
+      <c r="J4" s="78">
+        <v>100</v>
+      </c>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="95"/>
+    </row>
+    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="45"/>
-      <c r="B5" s="42"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="46"/>
       <c r="D5" s="46"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-    </row>
-    <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E5" s="91" t="s">
+        <v>812</v>
+      </c>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="78">
+        <v>8</v>
+      </c>
+      <c r="J5" s="78">
+        <v>8</v>
+      </c>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="95"/>
+      <c r="U5" s="95"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
+    </row>
+    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="45"/>
-      <c r="B6" s="19" t="s">
-        <v>41</v>
+      <c r="B6" s="92" t="s">
+        <v>147</v>
       </c>
       <c r="C6" s="46"/>
       <c r="D6" s="46"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-    </row>
-    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="45"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-    </row>
-    <row r="8" spans="1:20" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="95"/>
+      <c r="T6" s="95"/>
+      <c r="U6" s="95"/>
+      <c r="V6" s="95"/>
+      <c r="W6" s="95"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="92"/>
+      <c r="C7" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="67" t="s">
+        <v>309</v>
+      </c>
+      <c r="J7" s="65"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="T7" s="47" t="s">
+        <v>813</v>
+      </c>
+      <c r="U7" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="V7" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="W7" s="48"/>
+    </row>
+    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
-      <c r="B8" s="22"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="46"/>
       <c r="D8" s="46"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="60"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="25" t="s">
+      <c r="E8" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F8" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G8" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="M9" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="N9" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="O9" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="R9" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="S9" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="T9" s="48"/>
-    </row>
-    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46" t="s">
+      <c r="I8" s="46" t="s">
+        <v>814</v>
+      </c>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="S8" s="46" t="s">
+        <v>816</v>
+      </c>
+      <c r="T8" s="46" t="s">
+        <v>815</v>
+      </c>
+      <c r="U8" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="V8" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="W8" s="49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="45"/>
+      <c r="B9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="12"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="7" t="str">
+        <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A10)</f>
+        <v>2016:1:5:7:ASSISTANTS</v>
+      </c>
+      <c r="D10" s="7">
+        <f>MATCH($C10,REPORT_DATA_BY_COMP!$A:$A,0)</f>
+        <v>190</v>
+      </c>
+      <c r="E10" s="25">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D10,MATCH(E$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="25">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D10,MATCH(F$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="25">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D10,MATCH(G$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <v>7</v>
+      </c>
+      <c r="H10" s="25">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D10,MATCH(H$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <v>5</v>
+      </c>
+      <c r="I10" s="25" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D10,MATCH(I$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <v/>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="25">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D10,MATCH(M$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="25">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D10,MATCH(N$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="25">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D10,MATCH(O$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <v>14</v>
+      </c>
+      <c r="P10" s="25">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D10,MATCH(P$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
         <v>3</v>
       </c>
-      <c r="F10" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="46" t="s">
+      <c r="Q10" s="25">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D10,MATCH(Q$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <v>8</v>
+      </c>
+      <c r="R10" s="25">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D10,MATCH(R$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <v>12</v>
+      </c>
+      <c r="S10" s="25" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D10,MATCH(S$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <v/>
+      </c>
+      <c r="T10" s="25" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D10,MATCH(T$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <v/>
+      </c>
+      <c r="U10" s="25">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D10,MATCH(U$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <v>7</v>
+      </c>
+      <c r="V10" s="25">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D10,MATCH(V$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <v>1</v>
+      </c>
+      <c r="W10" s="25">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D10,MATCH(W$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>805</v>
+      </c>
+      <c r="C11" s="7" t="str">
+        <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A11)</f>
+        <v>2016:1:5:7:OFFICE_E</v>
+      </c>
+      <c r="D11" s="7">
+        <f>MATCH($C11,REPORT_DATA_BY_COMP!$A:$A,0)</f>
+        <v>222</v>
+      </c>
+      <c r="E11" s="25">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D11,MATCH(E$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="25">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D11,MATCH(F$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="25">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D11,MATCH(G$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="25">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D11,MATCH(H$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="25" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D11,MATCH(I$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <v/>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="25">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D11,MATCH(M$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="25">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D11,MATCH(N$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="25">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D11,MATCH(O$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <v>1</v>
+      </c>
+      <c r="P11" s="25">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D11,MATCH(P$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="25">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D11,MATCH(Q$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <v>2</v>
+      </c>
+      <c r="R11" s="25">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D11,MATCH(R$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <v>3</v>
+      </c>
+      <c r="S11" s="25" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D11,MATCH(S$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <v/>
+      </c>
+      <c r="T11" s="25" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D11,MATCH(T$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <v/>
+      </c>
+      <c r="U11" s="25">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D11,MATCH(U$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <v>2</v>
+      </c>
+      <c r="V11" s="25">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D11,MATCH(V$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="25">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D11,MATCH(W$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="54"/>
+      <c r="B12" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="26">
+        <f>SUM(E10:E11)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="26">
+        <f>SUM(F10:F11)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="26">
+        <f>SUM(G10:G11)</f>
+        <v>7</v>
+      </c>
+      <c r="H12" s="26">
+        <f>SUM(H10:H11)</f>
         <v>6</v>
       </c>
-      <c r="I10" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="L10" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="O10" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="P10" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q10" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="R10" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="S10" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="T10" s="49" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="12"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="C12" s="7" t="str">
-        <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A12)</f>
-        <v>2016:1:5:7:ASSISTANTS</v>
-      </c>
-      <c r="D12" s="7">
-        <f>MATCH($C12,REPORT_DATA_BY_COMP!$A:$A,0)</f>
-        <v>190</v>
-      </c>
-      <c r="E12" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D12,MATCH(E$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D12,MATCH(F$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D12,MATCH(G$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
-        <v>7</v>
-      </c>
-      <c r="H12" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D12,MATCH(H$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
-        <v>5</v>
-      </c>
-      <c r="I12" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D12,MATCH(I$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="K12" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D12,MATCH(K$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D12,MATCH(L$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D12,MATCH(M$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
-        <v>14</v>
-      </c>
-      <c r="N12" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D12,MATCH(N$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
-        <v>3</v>
-      </c>
-      <c r="O12" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D12,MATCH(O$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
-        <v>8</v>
-      </c>
-      <c r="P12" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D12,MATCH(P$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
-        <v>12</v>
-      </c>
-      <c r="Q12" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D12,MATCH(Q$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
-        <v>7</v>
-      </c>
-      <c r="R12" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D12,MATCH(R$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
-        <v>7</v>
-      </c>
-      <c r="S12" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D12,MATCH(S$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
-        <v>1</v>
-      </c>
-      <c r="T12" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D12,MATCH(T$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>805</v>
-      </c>
-      <c r="C13" s="7" t="str">
-        <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A13)</f>
-        <v>2016:1:5:7:OFFICE_E</v>
-      </c>
-      <c r="D13" s="7">
-        <f>MATCH($C13,REPORT_DATA_BY_COMP!$A:$A,0)</f>
-        <v>222</v>
-      </c>
-      <c r="E13" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D13,MATCH(E$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D13,MATCH(F$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D13,MATCH(G$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D13,MATCH(H$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
-        <v>1</v>
-      </c>
-      <c r="I13" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D13,MATCH(I$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="K13" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D13,MATCH(K$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D13,MATCH(L$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D13,MATCH(M$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
-        <v>1</v>
-      </c>
-      <c r="N13" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D13,MATCH(N$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D13,MATCH(O$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
-        <v>2</v>
-      </c>
-      <c r="P13" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D13,MATCH(P$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
-        <v>3</v>
-      </c>
-      <c r="Q13" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D13,MATCH(Q$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D13,MATCH(R$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
-        <v>2</v>
-      </c>
-      <c r="S13" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D13,MATCH(S$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
-        <v>0</v>
-      </c>
-      <c r="T13" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D13,MATCH(T$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="26">
-        <f>SUM(E12:E13)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="26">
-        <f>SUM(F12:F13)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="26">
-        <f>SUM(G12:G13)</f>
-        <v>7</v>
-      </c>
-      <c r="H14" s="26">
-        <f>SUM(H12:H13)</f>
-        <v>6</v>
-      </c>
-      <c r="I14" s="26">
-        <f>SUM(I12:I13)</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="24"/>
-      <c r="K14" s="26">
-        <f t="shared" ref="K14:T14" si="0">SUM(K12:K13)</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="26">
+      <c r="I12" s="26">
+        <f>SUM(I10:I11)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="26">
+        <f t="shared" ref="M12:W12" si="0">SUM(M10:M11)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M14" s="26">
+      <c r="O12" s="26">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="N14" s="26">
+      <c r="P12" s="26">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="O14" s="26">
+      <c r="Q12" s="26">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="P14" s="26">
+      <c r="R12" s="26">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="Q14" s="26">
+      <c r="S12" s="26">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="R14" s="26">
+        <v>0</v>
+      </c>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="S14" s="26">
+      <c r="V12" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T14" s="26">
+      <c r="W12" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B14" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="34"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="34"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>258</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>253</v>
+      </c>
+      <c r="C15" s="31" t="str">
+        <f>CONCATENATE(YEAR,":",MONTH,":1:",WEEKLY_REPORT_DAY,":", $A15)</f>
+        <v>2016:1:1:7:OFFICE</v>
+      </c>
+      <c r="D15" s="31" t="e">
+        <f>MATCH($C15,REPORT_DATA_BY_ZONE!$A:$A, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E15" s="25" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D15,MATCH(E$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v/>
+      </c>
+      <c r="F15" s="25" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D15,MATCH(F$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v/>
+      </c>
+      <c r="G15" s="25" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D15,MATCH(G$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v/>
+      </c>
+      <c r="H15" s="25" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D15,MATCH(H$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v/>
+      </c>
+      <c r="I15" s="25" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D15,MATCH(I$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v/>
+      </c>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="36" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D15,MATCH(M$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v/>
+      </c>
+      <c r="N15" s="36" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D15,MATCH(N$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v/>
+      </c>
+      <c r="O15" s="36" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D15,MATCH(O$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v/>
+      </c>
+      <c r="P15" s="36" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D15,MATCH(P$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v/>
+      </c>
+      <c r="Q15" s="36" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D15,MATCH(Q$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v/>
+      </c>
+      <c r="R15" s="36" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D15,MATCH(R$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v/>
+      </c>
+      <c r="S15" s="36" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D15,MATCH(S$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v/>
+      </c>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D15,MATCH(U$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v/>
+      </c>
+      <c r="V15" s="36" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D15,MATCH(V$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v/>
+      </c>
+      <c r="W15" s="36" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D15,MATCH(W$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>258</v>
+      </c>
+      <c r="B16" s="61" t="s">
+        <v>254</v>
+      </c>
+      <c r="C16" s="31" t="str">
+        <f>CONCATENATE(YEAR,":",MONTH,":2:",WEEKLY_REPORT_DAY,":", $A16)</f>
+        <v>2016:1:2:7:OFFICE</v>
+      </c>
+      <c r="D16" s="31" t="e">
+        <f>MATCH($C16,REPORT_DATA_BY_ZONE!$A:$A, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E16" s="25" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D16,MATCH(E$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v/>
+      </c>
+      <c r="F16" s="25" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D16,MATCH(F$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v/>
+      </c>
+      <c r="G16" s="25" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D16,MATCH(G$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v/>
+      </c>
+      <c r="H16" s="25" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D16,MATCH(H$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v/>
+      </c>
+      <c r="I16" s="25" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D16,MATCH(I$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v/>
+      </c>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="36" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D16,MATCH(M$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v/>
+      </c>
+      <c r="N16" s="36" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D16,MATCH(N$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v/>
+      </c>
+      <c r="O16" s="36" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D16,MATCH(O$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v/>
+      </c>
+      <c r="P16" s="36" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D16,MATCH(P$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v/>
+      </c>
+      <c r="Q16" s="36" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D16,MATCH(Q$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v/>
+      </c>
+      <c r="R16" s="36" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D16,MATCH(R$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v/>
+      </c>
+      <c r="S16" s="36" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D16,MATCH(S$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v/>
+      </c>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D16,MATCH(U$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v/>
+      </c>
+      <c r="V16" s="36" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D16,MATCH(V$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v/>
+      </c>
+      <c r="W16" s="36" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D16,MATCH(W$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>258</v>
       </c>
-      <c r="B17" s="30" t="s">
-        <v>253</v>
+      <c r="B17" s="61" t="s">
+        <v>255</v>
       </c>
       <c r="C17" s="31" t="str">
-        <f>CONCATENATE(YEAR,":",MONTH,":1:",WEEKLY_REPORT_DAY,":", $A17)</f>
-        <v>2016:1:1:7:OFFICE</v>
+        <f>CONCATENATE(YEAR,":",MONTH,":3:",WEEKLY_REPORT_DAY,":", $A17)</f>
+        <v>2016:1:3:7:OFFICE</v>
       </c>
       <c r="D17" s="31" t="e">
         <f>MATCH($C17,REPORT_DATA_BY_ZONE!$A:$A, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E17" s="25" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D17,MATCH(E$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D17,MATCH(E$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
         <v/>
       </c>
       <c r="F17" s="25" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D17,MATCH(F$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D17,MATCH(F$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
         <v/>
       </c>
       <c r="G17" s="25" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D17,MATCH(G$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D17,MATCH(G$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
         <v/>
       </c>
       <c r="H17" s="25" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D17,MATCH(H$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D17,MATCH(H$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
         <v/>
       </c>
       <c r="I17" s="25" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D17,MATCH(I$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D17,MATCH(I$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
         <v/>
       </c>
       <c r="J17" s="31"/>
-      <c r="K17" s="36" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D17,MATCH(K$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v/>
-      </c>
-      <c r="L17" s="36" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D17,MATCH(L$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v/>
-      </c>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
       <c r="M17" s="36" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D17,MATCH(M$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D17,MATCH(M$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
         <v/>
       </c>
       <c r="N17" s="36" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D17,MATCH(N$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D17,MATCH(N$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
         <v/>
       </c>
       <c r="O17" s="36" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D17,MATCH(O$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D17,MATCH(O$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
         <v/>
       </c>
       <c r="P17" s="36" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D17,MATCH(P$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D17,MATCH(P$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
         <v/>
       </c>
       <c r="Q17" s="36" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D17,MATCH(Q$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D17,MATCH(Q$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
         <v/>
       </c>
       <c r="R17" s="36" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D17,MATCH(R$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D17,MATCH(R$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
         <v/>
       </c>
       <c r="S17" s="36" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D17,MATCH(S$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v/>
-      </c>
-      <c r="T17" s="36" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D17,MATCH(T$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D17,MATCH(S$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v/>
+      </c>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D17,MATCH(U$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v/>
+      </c>
+      <c r="V17" s="36" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D17,MATCH(V$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v/>
+      </c>
+      <c r="W17" s="36" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D17,MATCH(W$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>258</v>
       </c>
-      <c r="B18" s="30" t="s">
-        <v>254</v>
+      <c r="B18" s="61" t="s">
+        <v>256</v>
       </c>
       <c r="C18" s="31" t="str">
-        <f>CONCATENATE(YEAR,":",MONTH,":2:",WEEKLY_REPORT_DAY,":", $A18)</f>
-        <v>2016:1:2:7:OFFICE</v>
+        <f>CONCATENATE(YEAR,":",MONTH,":4:",WEEKLY_REPORT_DAY,":", $A18)</f>
+        <v>2016:1:4:7:OFFICE</v>
       </c>
       <c r="D18" s="31" t="e">
         <f>MATCH($C18,REPORT_DATA_BY_ZONE!$A:$A, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E18" s="25" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D18,MATCH(E$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D18,MATCH(E$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
         <v/>
       </c>
       <c r="F18" s="25" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D18,MATCH(F$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D18,MATCH(F$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
         <v/>
       </c>
       <c r="G18" s="25" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D18,MATCH(G$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D18,MATCH(G$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
         <v/>
       </c>
       <c r="H18" s="25" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D18,MATCH(H$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D18,MATCH(H$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
         <v/>
       </c>
       <c r="I18" s="25" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D18,MATCH(I$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D18,MATCH(I$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
         <v/>
       </c>
       <c r="J18" s="31"/>
-      <c r="K18" s="36" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D18,MATCH(K$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v/>
-      </c>
-      <c r="L18" s="36" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D18,MATCH(L$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v/>
-      </c>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
       <c r="M18" s="36" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D18,MATCH(M$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D18,MATCH(M$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
         <v/>
       </c>
       <c r="N18" s="36" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D18,MATCH(N$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D18,MATCH(N$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
         <v/>
       </c>
       <c r="O18" s="36" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D18,MATCH(O$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D18,MATCH(O$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
         <v/>
       </c>
       <c r="P18" s="36" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D18,MATCH(P$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D18,MATCH(P$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
         <v/>
       </c>
       <c r="Q18" s="36" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D18,MATCH(Q$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D18,MATCH(Q$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
         <v/>
       </c>
       <c r="R18" s="36" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D18,MATCH(R$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D18,MATCH(R$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
         <v/>
       </c>
       <c r="S18" s="36" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D18,MATCH(S$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v/>
-      </c>
-      <c r="T18" s="36" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D18,MATCH(T$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D18,MATCH(S$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v/>
+      </c>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D18,MATCH(U$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v/>
+      </c>
+      <c r="V18" s="36" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D18,MATCH(V$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v/>
+      </c>
+      <c r="W18" s="36" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D18,MATCH(W$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>258</v>
       </c>
-      <c r="B19" s="30" t="s">
-        <v>255</v>
+      <c r="B19" s="61" t="s">
+        <v>257</v>
       </c>
       <c r="C19" s="31" t="str">
-        <f>CONCATENATE(YEAR,":",MONTH,":3:",WEEKLY_REPORT_DAY,":", $A19)</f>
-        <v>2016:1:3:7:OFFICE</v>
-      </c>
-      <c r="D19" s="31" t="e">
+        <f>CONCATENATE(YEAR,":",MONTH,":5:",WEEKLY_REPORT_DAY,":", $A19)</f>
+        <v>2016:1:5:7:OFFICE</v>
+      </c>
+      <c r="D19" s="31">
         <f>MATCH($C19,REPORT_DATA_BY_ZONE!$A:$A, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E19" s="25" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D19,MATCH(E$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v/>
-      </c>
-      <c r="F19" s="25" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D19,MATCH(F$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v/>
-      </c>
-      <c r="G19" s="25" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D19,MATCH(G$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v/>
-      </c>
-      <c r="H19" s="25" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D19,MATCH(H$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v/>
+        <v>6</v>
+      </c>
+      <c r="E19" s="25">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D19,MATCH(E$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="25">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D19,MATCH(F$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="25">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D19,MATCH(G$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v>7</v>
+      </c>
+      <c r="H19" s="25">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D19,MATCH(H$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v>6</v>
       </c>
       <c r="I19" s="25" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D19,MATCH(I$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D19,MATCH(I$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
         <v/>
       </c>
       <c r="J19" s="31"/>
-      <c r="K19" s="36" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D19,MATCH(K$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v/>
-      </c>
-      <c r="L19" s="36" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D19,MATCH(L$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v/>
-      </c>
-      <c r="M19" s="36" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D19,MATCH(M$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v/>
-      </c>
-      <c r="N19" s="36" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D19,MATCH(N$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v/>
-      </c>
-      <c r="O19" s="36" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D19,MATCH(O$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v/>
-      </c>
-      <c r="P19" s="36" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D19,MATCH(P$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v/>
-      </c>
-      <c r="Q19" s="36" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D19,MATCH(Q$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v/>
-      </c>
-      <c r="R19" s="36" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D19,MATCH(R$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="36">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D19,MATCH(M$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="36">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D19,MATCH(N$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="36">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D19,MATCH(O$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v>15</v>
+      </c>
+      <c r="P19" s="36">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D19,MATCH(P$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v>3</v>
+      </c>
+      <c r="Q19" s="36">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D19,MATCH(Q$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v>10</v>
+      </c>
+      <c r="R19" s="36">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D19,MATCH(R$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v>15</v>
       </c>
       <c r="S19" s="36" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D19,MATCH(S$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v/>
-      </c>
-      <c r="T19" s="36" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D19,MATCH(T$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>258</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="C20" s="31" t="str">
-        <f>CONCATENATE(YEAR,":",MONTH,":4:",WEEKLY_REPORT_DAY,":", $A20)</f>
-        <v>2016:1:4:7:OFFICE</v>
-      </c>
-      <c r="D20" s="31" t="e">
-        <f>MATCH($C20,REPORT_DATA_BY_ZONE!$A:$A, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E20" s="25" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D20,MATCH(E$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v/>
-      </c>
-      <c r="F20" s="25" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D20,MATCH(F$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v/>
-      </c>
-      <c r="G20" s="25" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D20,MATCH(G$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v/>
-      </c>
-      <c r="H20" s="25" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D20,MATCH(H$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v/>
-      </c>
-      <c r="I20" s="25" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D20,MATCH(I$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v/>
-      </c>
-      <c r="J20" s="31"/>
-      <c r="K20" s="36" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D20,MATCH(K$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v/>
-      </c>
-      <c r="L20" s="36" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D20,MATCH(L$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v/>
-      </c>
-      <c r="M20" s="36" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D20,MATCH(M$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v/>
-      </c>
-      <c r="N20" s="36" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D20,MATCH(N$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v/>
-      </c>
-      <c r="O20" s="36" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D20,MATCH(O$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v/>
-      </c>
-      <c r="P20" s="36" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D20,MATCH(P$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v/>
-      </c>
-      <c r="Q20" s="36" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D20,MATCH(Q$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v/>
-      </c>
-      <c r="R20" s="36" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D20,MATCH(R$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v/>
-      </c>
-      <c r="S20" s="36" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D20,MATCH(S$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v/>
-      </c>
-      <c r="T20" s="36" t="str">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D20,MATCH(T$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>258</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="C21" s="31" t="str">
-        <f>CONCATENATE(YEAR,":",MONTH,":5:",WEEKLY_REPORT_DAY,":", $A21)</f>
-        <v>2016:1:5:7:OFFICE</v>
-      </c>
-      <c r="D21" s="31">
-        <f>MATCH($C21,REPORT_DATA_BY_ZONE!$A:$A, 0)</f>
-        <v>6</v>
-      </c>
-      <c r="E21" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D21,MATCH(E$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D21,MATCH(F$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D21,MATCH(G$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>7</v>
-      </c>
-      <c r="H21" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D21,MATCH(H$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>6</v>
-      </c>
-      <c r="I21" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D21,MATCH(I$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="31"/>
-      <c r="K21" s="36">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D21,MATCH(K$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="36">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D21,MATCH(L$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="36">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D21,MATCH(M$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>15</v>
-      </c>
-      <c r="N21" s="36">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D21,MATCH(N$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>3</v>
-      </c>
-      <c r="O21" s="36">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D21,MATCH(O$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>10</v>
-      </c>
-      <c r="P21" s="36">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D21,MATCH(P$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>15</v>
-      </c>
-      <c r="Q21" s="36">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D21,MATCH(Q$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>7</v>
-      </c>
-      <c r="R21" s="36">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D21,MATCH(R$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D19,MATCH(S$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v/>
+      </c>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D19,MATCH(U$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
         <v>9</v>
       </c>
-      <c r="S21" s="36">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D21,MATCH(S$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>1</v>
-      </c>
-      <c r="T21" s="36">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D21,MATCH(T$10,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="35" t="s">
+      <c r="V19" s="36">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D19,MATCH(V$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v>1</v>
+      </c>
+      <c r="W19" s="36">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_ZONE!$A:$Z,$D19,MATCH(W$8,REPORT_DATA_BY_ZONE!$A$1:$Z$1,0)), "")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B20" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="37">
-        <f>SUM(E17:E21)</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="37">
-        <f t="shared" ref="F22:T22" si="1">SUM(F17:F21)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="37">
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="37">
+        <f>SUM(E15:E19)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="37">
+        <f t="shared" ref="F20:W20" si="1">SUM(F15:F19)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="37">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H20" s="37">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I22" s="37">
+      <c r="I20" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J22" s="32"/>
-      <c r="K22" s="37">
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L22" s="37">
+      <c r="N20" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M22" s="37">
+      <c r="O20" s="37">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="N22" s="37">
+      <c r="P20" s="37">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="O22" s="37">
+      <c r="Q20" s="37">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P22" s="37">
+      <c r="R20" s="37">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="Q22" s="37">
+      <c r="S20" s="37">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="R22" s="37">
+        <v>0</v>
+      </c>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="S22" s="37">
+      <c r="V20" s="37">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T22" s="37">
+      <c r="W20" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="P1:P8"/>
-    <mergeCell ref="Q1:Q8"/>
-    <mergeCell ref="R1:R8"/>
-    <mergeCell ref="S1:S8"/>
-    <mergeCell ref="T1:T8"/>
-    <mergeCell ref="O1:O8"/>
-    <mergeCell ref="E1:I8"/>
-    <mergeCell ref="K1:K8"/>
-    <mergeCell ref="L1:L8"/>
-    <mergeCell ref="M1:M8"/>
-    <mergeCell ref="N1:N8"/>
+  <mergeCells count="16">
+    <mergeCell ref="R1:R6"/>
+    <mergeCell ref="W1:W6"/>
+    <mergeCell ref="V1:V6"/>
+    <mergeCell ref="U1:U6"/>
+    <mergeCell ref="T1:T6"/>
+    <mergeCell ref="S1:S6"/>
+    <mergeCell ref="Q1:Q6"/>
+    <mergeCell ref="P1:P6"/>
+    <mergeCell ref="O1:O6"/>
+    <mergeCell ref="N1:N6"/>
+    <mergeCell ref="M1:M6"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E6:I6"/>
   </mergeCells>
-  <conditionalFormatting sqref="K12:L13">
+  <conditionalFormatting sqref="M10:N11">
+    <cfRule type="cellIs" dxfId="739" priority="41" operator="lessThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="738" priority="42" operator="greaterThan">
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10:O11">
     <cfRule type="cellIs" dxfId="737" priority="39" operator="lessThan">
-      <formula>0.5</formula>
+      <formula>4.5</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="736" priority="40" operator="greaterThan">
-      <formula>0.5</formula>
+      <formula>5.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M12:M13">
+  <conditionalFormatting sqref="P10:P11">
     <cfRule type="cellIs" dxfId="735" priority="37" operator="lessThan">
+      <formula>1.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="734" priority="38" operator="greaterThan">
+      <formula>2.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q10:Q11">
+    <cfRule type="cellIs" dxfId="733" priority="35" operator="lessThan">
       <formula>4.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="734" priority="38" operator="greaterThan">
-      <formula>5.5</formula>
+    <cfRule type="cellIs" dxfId="732" priority="36" operator="greaterThan">
+      <formula>7.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N12:N13">
-    <cfRule type="cellIs" dxfId="733" priority="35" operator="lessThan">
-      <formula>1.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="732" priority="36" operator="greaterThan">
+  <conditionalFormatting sqref="S10:T11">
+    <cfRule type="cellIs" dxfId="731" priority="33" operator="lessThan">
       <formula>2.5</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="730" priority="34" operator="greaterThan">
+      <formula>4.5</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O12:O13">
-    <cfRule type="cellIs" dxfId="731" priority="33" operator="lessThan">
-      <formula>4.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="730" priority="34" operator="greaterThan">
-      <formula>7.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q12:Q13">
+  <conditionalFormatting sqref="U10:U11">
     <cfRule type="cellIs" dxfId="729" priority="31" operator="lessThan">
       <formula>2.5</formula>
     </cfRule>
@@ -42942,52 +43128,52 @@
       <formula>4.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R12:R13">
-    <cfRule type="cellIs" dxfId="727" priority="29" operator="lessThan">
+  <conditionalFormatting sqref="V10:V11">
+    <cfRule type="cellIs" dxfId="727" priority="30" operator="greaterThan">
+      <formula>1.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11">
+    <cfRule type="cellIs" dxfId="726" priority="28" operator="lessThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="725" priority="29" operator="greaterThan">
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O11">
+    <cfRule type="cellIs" dxfId="724" priority="26" operator="lessThan">
+      <formula>4.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="723" priority="27" operator="greaterThan">
+      <formula>5.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P11">
+    <cfRule type="cellIs" dxfId="722" priority="24" operator="lessThan">
+      <formula>1.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="721" priority="25" operator="greaterThan">
       <formula>2.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="726" priority="30" operator="greaterThan">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q11">
+    <cfRule type="cellIs" dxfId="720" priority="22" operator="lessThan">
       <formula>4.5</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="719" priority="23" operator="greaterThan">
+      <formula>7.5</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S12:S13">
-    <cfRule type="cellIs" dxfId="725" priority="28" operator="greaterThan">
-      <formula>1.5</formula>
+  <conditionalFormatting sqref="S11:T11">
+    <cfRule type="cellIs" dxfId="718" priority="20" operator="lessThan">
+      <formula>2.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="717" priority="21" operator="greaterThan">
+      <formula>4.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="724" priority="26" operator="lessThan">
-      <formula>0.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="723" priority="27" operator="greaterThan">
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M13">
-    <cfRule type="cellIs" dxfId="722" priority="24" operator="lessThan">
-      <formula>4.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="721" priority="25" operator="greaterThan">
-      <formula>5.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N13">
-    <cfRule type="cellIs" dxfId="720" priority="22" operator="lessThan">
-      <formula>1.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="719" priority="23" operator="greaterThan">
-      <formula>2.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O13">
-    <cfRule type="cellIs" dxfId="718" priority="20" operator="lessThan">
-      <formula>4.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="717" priority="21" operator="greaterThan">
-      <formula>7.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q13">
+  <conditionalFormatting sqref="U11">
     <cfRule type="cellIs" dxfId="716" priority="18" operator="lessThan">
       <formula>2.5</formula>
     </cfRule>
@@ -42995,26 +43181,26 @@
       <formula>4.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R13">
-    <cfRule type="cellIs" dxfId="714" priority="16" operator="lessThan">
-      <formula>2.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="713" priority="17" operator="greaterThan">
-      <formula>4.5</formula>
+  <conditionalFormatting sqref="V11">
+    <cfRule type="cellIs" dxfId="714" priority="17" operator="greaterThan">
+      <formula>1.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S13">
-    <cfRule type="cellIs" dxfId="712" priority="15" operator="greaterThan">
-      <formula>1.5</formula>
+  <conditionalFormatting sqref="M10:W11">
+    <cfRule type="expression" dxfId="713" priority="1">
+      <formula>M10=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:T13">
-    <cfRule type="expression" dxfId="711" priority="1">
-      <formula>K12=""</formula>
+  <conditionalFormatting sqref="T10:T11">
+    <cfRule type="cellIs" dxfId="712" priority="3" operator="lessThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="711" priority="2" operator="greaterThan">
+      <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -43025,7 +43211,7 @@
   </sheetPr>
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="B8" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -43048,42 +43234,42 @@
       </c>
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="69"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="97"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="58" t="s">
+      <c r="O1" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="58" t="s">
+      <c r="P1" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="58" t="s">
+      <c r="R1" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="S1" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="T1" s="58" t="s">
+      <c r="T1" s="79" t="s">
         <v>60</v>
       </c>
     </row>
@@ -43095,22 +43281,22 @@
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="65"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="86"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
     </row>
     <row r="3" spans="1:20" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
@@ -43119,68 +43305,68 @@
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="65"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45"/>
       <c r="B4" s="19"/>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="65"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="86"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45"/>
       <c r="B5" s="42"/>
       <c r="C5" s="46"/>
       <c r="D5" s="46"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="65"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="86"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="45"/>
@@ -43189,68 +43375,68 @@
       </c>
       <c r="C6" s="46"/>
       <c r="D6" s="46"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="65"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="86"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="80"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="45"/>
       <c r="B7" s="21"/>
       <c r="C7" s="46"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="65"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="86"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="80"/>
     </row>
     <row r="8" spans="1:20" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
       <c r="B8" s="22"/>
       <c r="C8" s="46"/>
       <c r="D8" s="46"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="67"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
       <c r="J8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="60"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="81"/>
+      <c r="T8" s="81"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
@@ -44828,42 +45014,42 @@
       </c>
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="69"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="97"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="58" t="s">
+      <c r="O1" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="58" t="s">
+      <c r="P1" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="58" t="s">
+      <c r="R1" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="S1" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="T1" s="58" t="s">
+      <c r="T1" s="79" t="s">
         <v>60</v>
       </c>
     </row>
@@ -44875,22 +45061,22 @@
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="65"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="86"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
     </row>
     <row r="3" spans="1:20" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
@@ -44899,68 +45085,68 @@
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="65"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45"/>
       <c r="B4" s="19"/>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="65"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="86"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45"/>
       <c r="B5" s="42"/>
       <c r="C5" s="46"/>
       <c r="D5" s="46"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="65"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="86"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="45"/>
@@ -44969,68 +45155,68 @@
       </c>
       <c r="C6" s="46"/>
       <c r="D6" s="46"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="65"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="86"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="80"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="45"/>
       <c r="B7" s="21"/>
       <c r="C7" s="46"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="65"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="86"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="80"/>
     </row>
     <row r="8" spans="1:20" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
       <c r="B8" s="22"/>
       <c r="C8" s="46"/>
       <c r="D8" s="46"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="67"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
       <c r="J8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="60"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="81"/>
+      <c r="T8" s="81"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
@@ -46802,42 +46988,42 @@
       </c>
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="69"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="97"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="58" t="s">
+      <c r="O1" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="58" t="s">
+      <c r="P1" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="58" t="s">
+      <c r="R1" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="S1" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="T1" s="58" t="s">
+      <c r="T1" s="79" t="s">
         <v>60</v>
       </c>
     </row>
@@ -46849,22 +47035,22 @@
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="65"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="86"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
     </row>
     <row r="3" spans="1:20" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
@@ -46873,67 +47059,67 @@
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="65"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45"/>
       <c r="B4" s="19"/>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="65"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="86"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="42"/>
       <c r="C5" s="46"/>
       <c r="D5" s="46"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="65"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="86"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="45"/>
@@ -46942,68 +47128,68 @@
       </c>
       <c r="C6" s="46"/>
       <c r="D6" s="46"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="65"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="86"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="80"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="45"/>
       <c r="B7" s="21"/>
       <c r="C7" s="46"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="65"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="86"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="80"/>
     </row>
     <row r="8" spans="1:20" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
       <c r="B8" s="22"/>
       <c r="C8" s="46"/>
       <c r="D8" s="46"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="67"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
       <c r="J8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="60"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="81"/>
+      <c r="T8" s="81"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
@@ -48670,42 +48856,42 @@
       </c>
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="69"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="97"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="58" t="s">
+      <c r="O1" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="58" t="s">
+      <c r="P1" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="58" t="s">
+      <c r="R1" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="S1" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="T1" s="58" t="s">
+      <c r="T1" s="79" t="s">
         <v>60</v>
       </c>
     </row>
@@ -48717,22 +48903,22 @@
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="65"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="86"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
     </row>
     <row r="3" spans="1:20" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
@@ -48741,68 +48927,68 @@
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="65"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45"/>
       <c r="B4" s="19"/>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="65"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="86"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45"/>
       <c r="B5" s="42"/>
       <c r="C5" s="46"/>
       <c r="D5" s="46"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="65"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="86"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="45"/>
@@ -48811,68 +48997,68 @@
       </c>
       <c r="C6" s="46"/>
       <c r="D6" s="46"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="65"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="86"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="80"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="45"/>
       <c r="B7" s="21"/>
       <c r="C7" s="46"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="65"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="86"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="80"/>
     </row>
     <row r="8" spans="1:20" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
       <c r="B8" s="22"/>
       <c r="C8" s="46"/>
       <c r="D8" s="46"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="67"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
       <c r="J8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="60"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="81"/>
+      <c r="T8" s="81"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
@@ -50904,7 +51090,7 @@
   </sheetPr>
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
@@ -50927,42 +51113,42 @@
       </c>
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="69"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="97"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="58" t="s">
+      <c r="O1" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="58" t="s">
+      <c r="P1" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="58" t="s">
+      <c r="R1" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="S1" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="T1" s="58" t="s">
+      <c r="T1" s="79" t="s">
         <v>60</v>
       </c>
     </row>
@@ -50974,22 +51160,22 @@
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="65"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="86"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
     </row>
     <row r="3" spans="1:20" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
@@ -50998,68 +51184,68 @@
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="65"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45"/>
       <c r="B4" s="19"/>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="65"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="86"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45"/>
       <c r="B5" s="56"/>
       <c r="C5" s="46"/>
       <c r="D5" s="46"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="65"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="86"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="45"/>
@@ -51068,68 +51254,68 @@
       </c>
       <c r="C6" s="46"/>
       <c r="D6" s="46"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="65"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="86"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="80"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="45"/>
       <c r="B7" s="21"/>
       <c r="C7" s="46"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="65"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="86"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="80"/>
     </row>
     <row r="8" spans="1:20" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
       <c r="B8" s="22"/>
       <c r="C8" s="46"/>
       <c r="D8" s="46"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="67"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
       <c r="J8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="60"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="81"/>
+      <c r="T8" s="81"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
@@ -51672,66 +51858,66 @@
         <v>247</v>
       </c>
       <c r="E17" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D17,MATCH(OFFICE!E$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D17,MATCH(OFFICE!E$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
         <v>0</v>
       </c>
       <c r="F17" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D17,MATCH(OFFICE!F$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D17,MATCH(OFFICE!F$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
         <v>0</v>
       </c>
       <c r="G17" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D17,MATCH(OFFICE!G$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D17,MATCH(OFFICE!G$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
         <v>3</v>
       </c>
       <c r="H17" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D17,MATCH(OFFICE!H$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
-        <v>2</v>
-      </c>
-      <c r="I17" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D17,MATCH(OFFICE!I$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
-        <v>0</v>
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D17,MATCH(OFFICE!H$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <v>2</v>
+      </c>
+      <c r="I17" s="25" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D17,MATCH(OFFICE!I$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <v/>
       </c>
       <c r="J17" s="7" t="s">
         <v>807</v>
       </c>
       <c r="K17" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D17,MATCH(OFFICE!K$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D17,MATCH(OFFICE!M$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
         <v>1</v>
       </c>
       <c r="L17" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D17,MATCH(OFFICE!L$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D17,MATCH(OFFICE!N$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
         <v>1</v>
       </c>
       <c r="M17" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D17,MATCH(OFFICE!M$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D17,MATCH(OFFICE!O$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
         <v>5</v>
       </c>
       <c r="N17" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D17,MATCH(OFFICE!N$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D17,MATCH(OFFICE!P$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
         <v>1</v>
       </c>
       <c r="O17" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D17,MATCH(OFFICE!O$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D17,MATCH(OFFICE!Q$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
         <v>9</v>
       </c>
       <c r="P17" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D17,MATCH(OFFICE!P$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D17,MATCH(OFFICE!R$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
         <v>29</v>
       </c>
-      <c r="Q17" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D17,MATCH(OFFICE!Q$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
-        <v>3</v>
+      <c r="Q17" s="25" t="str">
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D17,MATCH(OFFICE!S$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <v/>
       </c>
       <c r="R17" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D17,MATCH(OFFICE!R$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D17,MATCH(OFFICE!U$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
         <v>4</v>
       </c>
       <c r="S17" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D17,MATCH(OFFICE!S$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D17,MATCH(OFFICE!V$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
         <v>0</v>
       </c>
       <c r="T17" s="25">
-        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D17,MATCH(OFFICE!T$10,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
+        <f>IFERROR(INDEX(REPORT_DATA_BY_COMP!$A:$AA,$D17,MATCH(OFFICE!W$8,REPORT_DATA_BY_COMP!$A$1:$AA$1,0)), "")</f>
         <v>0</v>
       </c>
     </row>
@@ -51789,7 +51975,7 @@
       </c>
       <c r="Q18" s="26">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="R18" s="26">
         <f t="shared" si="1"/>
@@ -52737,7 +52923,7 @@
       </c>
       <c r="Q34" s="17">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R34" s="17">
         <f t="shared" si="4"/>
@@ -53176,42 +53362,42 @@
       </c>
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="69"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="97"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="58" t="s">
+      <c r="O1" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="58" t="s">
+      <c r="P1" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="58" t="s">
+      <c r="R1" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="S1" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="T1" s="58" t="s">
+      <c r="T1" s="79" t="s">
         <v>60</v>
       </c>
     </row>
@@ -53223,22 +53409,22 @@
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="65"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="86"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
     </row>
     <row r="3" spans="1:20" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
@@ -53247,68 +53433,68 @@
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="65"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45"/>
       <c r="B4" s="19"/>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="65"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="86"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45"/>
       <c r="B5" s="42"/>
       <c r="C5" s="46"/>
       <c r="D5" s="46"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="65"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="86"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="45"/>
@@ -53317,68 +53503,68 @@
       </c>
       <c r="C6" s="46"/>
       <c r="D6" s="46"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="65"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="86"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="80"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="45"/>
       <c r="B7" s="21"/>
       <c r="C7" s="46"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="65"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="86"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="80"/>
     </row>
     <row r="8" spans="1:20" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
       <c r="B8" s="22"/>
       <c r="C8" s="46"/>
       <c r="D8" s="46"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="67"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
       <c r="J8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="60"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="81"/>
+      <c r="T8" s="81"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
